--- a/bangluudulieu_tamthoiapp.xlsx
+++ b/bangluudulieu_tamthoiapp.xlsx
@@ -490,17 +490,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C17049_C</t>
+          <t>43C01338_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C17049_C</t>
+          <t>43C01338_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C17049_C</t>
+          <t>43C01338_C</t>
         </is>
       </c>
     </row>
@@ -512,17 +512,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14:57:54 27/06/2024</t>
+          <t>12:05:58 27/06/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:58:05 27/06/2024</t>
+          <t>12:05:58 27/06/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-06-27T14:57:54</t>
+          <t>2024-06-27T12:05:58</t>
         </is>
       </c>
     </row>
@@ -534,16 +534,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>46 Km/h</t>
+          <t>34 Km/h</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>46 Km/h</t>
+          <t>34 Km/h</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -562,11 +562,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>301,13 km</t>
+          <t>26,36 km</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>301.13</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17 lần</t>
+          <t>8 lần</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
@@ -626,17 +626,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 1A, X. Tam Nghĩa, H. Núi Thành, Quảng Nam</t>
+          <t>Cầu Trà Khúc 2, P. Lê Hồng Phong, TP. Quảng Ngãi, Quảng Ngãi</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 1A, X. Tam Nghĩa, H. Núi Thành, Quảng Nam</t>
+          <t>Cầu Trà Khúc 2, P. Lê Hồng Phong, TP. Quảng Ngãi, Quảng Ngãi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 1A, X. Tam Nghĩa, H. Núi Thành, Quảng Nam</t>
+          <t>Cầu Trà Khúc 2, P. Lê Hồng Phong, TP. Quảng Ngãi, Quảng Ngãi</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>230/403L</t>
+          <t>146/400L</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
@@ -694,7 +694,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01699919217</t>
+          <t>0826585408</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -707,7 +707,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13/05/2021</t>
+          <t>09/05/2021</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -720,7 +720,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>869336030095267</t>
+          <t>868133049070873</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -785,12 +785,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NGUYEN VAN LIEM</t>
+          <t>PHAM THANH THUAN</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NGUYEN VAN LIEM</t>
+          <t>PHAM THANH THUAN</t>
         </is>
       </c>
     </row>
@@ -802,12 +802,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>480070481684</t>
+          <t>48166002843</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>480070481684</t>
+          <t>48166002843</t>
         </is>
       </c>
     </row>
@@ -827,11 +827,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0 phút</t>
+          <t>5 phút</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -842,11 +842,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>429 phút</t>
+          <t>31 phút</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>429</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -900,6 +900,11 @@
           <t>Vin</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>58251325</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -909,7 +914,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SCVTQC030</t>
+          <t>SCVINAQCB010</t>
         </is>
       </c>
     </row>
@@ -921,7 +926,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Viettel</t>
+          <t>Vina</t>
         </is>
       </c>
     </row>
@@ -933,7 +938,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>30720 MB</t>
+          <t>10240 MB</t>
         </is>
       </c>
     </row>
@@ -969,7 +974,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ghi nhớ đăng nhập - Tích chọn</t>
+          <t>Danh sách phương tiện</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -986,7 +991,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tự động lưu account cho lần sau login</t>
+          <t>Chuyển tới trang "Phương tiện"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">

--- a/bangluudulieu_tamthoiapp.xlsx
+++ b/bangluudulieu_tamthoiapp.xlsx
@@ -490,17 +490,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C01338_C</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>43C01338_C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>43C01338_C</t>
+          <t>43H03217</t>
         </is>
       </c>
     </row>
@@ -512,17 +502,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12:05:58 27/06/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>12:05:58 27/06/2024</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2024-06-27T12:05:58</t>
+          <t>13:52:50 02/07/2024</t>
         </is>
       </c>
     </row>
@@ -534,16 +514,8 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>34 Km/h</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>34 Km/h</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>34</v>
+          <t>49 Km/h</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -560,14 +532,6 @@
           <t>km trong ngày</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>26,36 km</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>26.36</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -575,11 +539,6 @@
           <t>Dừng đỗ</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>8 lần</t>
-        </is>
-      </c>
       <c r="D11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
@@ -593,11 +552,6 @@
           <t>Bật</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bật</t>
-        </is>
-      </c>
       <c r="D12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
@@ -611,11 +565,6 @@
           <t>Tắt</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Tắt</t>
-        </is>
-      </c>
       <c r="D13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
@@ -626,17 +575,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cầu Trà Khúc 2, P. Lê Hồng Phong, TP. Quảng Ngãi, Quảng Ngãi</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Cầu Trà Khúc 2, P. Lê Hồng Phong, TP. Quảng Ngãi, Quảng Ngãi</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Cầu Trà Khúc 2, P. Lê Hồng Phong, TP. Quảng Ngãi, Quảng Ngãi</t>
+          <t>Quốc Lộ 1A, X. Tam Anh Nam, H. Núi Thành, Quảng Nam</t>
         </is>
       </c>
     </row>
@@ -654,11 +593,6 @@
           <t>nhiên liệu</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>146/400L</t>
-        </is>
-      </c>
       <c r="D16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
@@ -667,11 +601,6 @@
           <t>nhiệt độ</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mất kết nối cảm biến</t>
-        </is>
-      </c>
       <c r="D17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
@@ -692,11 +621,6 @@
           <t>Số sim</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0826585408</t>
-        </is>
-      </c>
       <c r="D19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
@@ -705,11 +629,6 @@
           <t>Ngày đăng ký</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>09/05/2021</t>
-        </is>
-      </c>
       <c r="D20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
@@ -718,11 +637,6 @@
           <t>Imei</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>868133049070873</t>
-        </is>
-      </c>
       <c r="D21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
@@ -731,11 +645,6 @@
           <t>Km tích lũy</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0 km</t>
-        </is>
-      </c>
       <c r="D22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
@@ -744,11 +653,6 @@
           <t>Số lần mở cửa</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="D23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
@@ -757,11 +661,6 @@
           <t>Thẻ nhớ</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Bình thường</t>
-        </is>
-      </c>
       <c r="D24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
@@ -770,11 +669,6 @@
           <t>Nhóm đội</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>VICONSHIPCAM</t>
-        </is>
-      </c>
       <c r="D25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
@@ -783,16 +677,6 @@
           <t>lái xe</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>PHAM THANH THUAN</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>PHAM THANH THUAN</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -800,16 +684,6 @@
           <t>bằng lái</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>48166002843</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>48166002843</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -825,14 +699,6 @@
           <t>thời gian lái xe liên tục</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>5 phút</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -840,14 +706,6 @@
           <t>thời gian lái xe trong ngày</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>31 phút</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>31</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -855,14 +713,6 @@
           <t>số lần quá tốc độ</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0 lần</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -900,11 +750,6 @@
           <t>Vin</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>58251325</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -912,11 +757,6 @@
           <t>tên gói cước</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>SCVINAQCB010</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -924,11 +764,6 @@
           <t>nhà mạng</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Vina</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -936,11 +771,6 @@
           <t>dung lượng gói cước</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>10240 MB</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -948,11 +778,6 @@
           <t>Số ngày lưu trữ</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0 ngày</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -960,11 +785,6 @@
           <t>Số kênh lưu trữ</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -974,12 +794,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Danh sách phương tiện</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Có</t>
+          <t>Tổng số xe</t>
         </is>
       </c>
     </row>
@@ -991,12 +806,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chuyển tới trang "Phương tiện"</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Có</t>
+          <t>Tổng các trạng thái</t>
         </is>
       </c>
     </row>
@@ -1006,11 +816,6 @@
           <t>tính năng video</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1018,21 +823,11 @@
           <t>Kênh lắp camera</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
           <t>Kênh hoạt động</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1,2</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoiapp.xlsx
+++ b/bangluudulieu_tamthoiapp.xlsx
@@ -490,7 +490,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43H03217</t>
+          <t>43C22676_C</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>43C22676_C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43C22676_C</t>
         </is>
       </c>
     </row>
@@ -502,7 +512,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13:52:50 02/07/2024</t>
+          <t>08:43:28 04/07/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08:43:59 04/07/2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-07-04T08:43:28</t>
         </is>
       </c>
     </row>
@@ -517,6 +537,14 @@
           <t>49 Km/h</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>50 Km/h</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -532,6 +560,14 @@
           <t>km trong ngày</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>56,15 km</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>56.15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -539,6 +575,11 @@
           <t>Dừng đỗ</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>18 lần</t>
+        </is>
+      </c>
       <c r="D11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
@@ -552,6 +593,11 @@
           <t>Bật</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bật</t>
+        </is>
+      </c>
       <c r="D12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
@@ -562,7 +608,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tắt</t>
+          <t>Bật</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Bật</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
@@ -575,7 +626,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 1A, X. Tam Anh Nam, H. Núi Thành, Quảng Nam</t>
+          <t>Nguyễn Tất Thành, P. Điện Nam Bắc, TX. Điện Bàn, Quảng Nam</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Nguyễn Tất Thành, P. Điện Nam Bắc, TX. Điện Bàn, Quảng Nam</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Nguyễn Tất Thành, P. Điện Nam Bắc, TX. Điện Bàn, Quảng Nam</t>
         </is>
       </c>
     </row>
@@ -593,6 +654,11 @@
           <t>nhiên liệu</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>260/408L</t>
+        </is>
+      </c>
       <c r="D16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
@@ -601,6 +667,11 @@
           <t>nhiệt độ</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mất kết nối cảm biến</t>
+        </is>
+      </c>
       <c r="D17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
@@ -621,6 +692,11 @@
           <t>Số sim</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>01699919204</t>
+        </is>
+      </c>
       <c r="D19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
@@ -629,6 +705,11 @@
           <t>Ngày đăng ký</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>09/05/2021</t>
+        </is>
+      </c>
       <c r="D20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
@@ -637,6 +718,11 @@
           <t>Imei</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>869336030261307</t>
+        </is>
+      </c>
       <c r="D21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
@@ -645,6 +731,11 @@
           <t>Km tích lũy</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0 km</t>
+        </is>
+      </c>
       <c r="D22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
@@ -653,6 +744,11 @@
           <t>Số lần mở cửa</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="D23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
@@ -661,6 +757,11 @@
           <t>Thẻ nhớ</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Bình thường</t>
+        </is>
+      </c>
       <c r="D24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
@@ -669,6 +770,11 @@
           <t>Nhóm đội</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>VICONSHIPCAM, KPI</t>
+        </is>
+      </c>
       <c r="D25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
@@ -677,6 +783,16 @@
           <t>lái xe</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NGUYEN TRUONG AN</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NGUYEN TRUONG AN</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -684,6 +800,16 @@
           <t>bằng lái</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>490100000736</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>490100000736</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -691,6 +817,11 @@
           <t>điện thoại</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0905074566</t>
+        </is>
+      </c>
       <c r="D28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
@@ -699,6 +830,14 @@
           <t>thời gian lái xe liên tục</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>59 phút</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -706,6 +845,14 @@
           <t>thời gian lái xe trong ngày</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>127 phút</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -713,6 +860,14 @@
           <t>số lần quá tốc độ</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0 lần</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -750,6 +905,11 @@
           <t>Vin</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>58251325</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -757,6 +917,11 @@
           <t>tên gói cước</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SCVTQC030</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -764,6 +929,11 @@
           <t>nhà mạng</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Viettel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -771,6 +941,11 @@
           <t>dung lượng gói cước</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>30720 MB</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -778,6 +953,11 @@
           <t>Số ngày lưu trữ</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -785,6 +965,11 @@
           <t>Số kênh lưu trữ</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -794,7 +979,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tổng số xe</t>
+          <t xml:space="preserve">Icon đổi bản đồ </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Có</t>
         </is>
       </c>
     </row>
@@ -804,9 +994,9 @@
           <t>tính năng ảnh</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Tổng các trạng thái</t>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Có</t>
         </is>
       </c>
     </row>
@@ -816,6 +1006,11 @@
           <t>tính năng video</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -823,11 +1018,21 @@
           <t>Kênh lắp camera</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
           <t>Kênh hoạt động</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1,2</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoiapp.xlsx
+++ b/bangluudulieu_tamthoiapp.xlsx
@@ -979,7 +979,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Icon đổi bản đồ </t>
+          <t>Chọn nhóm</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -992,6 +992,11 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>tính năng ảnh</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hiển thị toàn bộ phương tiện của nhóm</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">

--- a/bangluudulieu_tamthoiapp.xlsx
+++ b/bangluudulieu_tamthoiapp.xlsx
@@ -490,17 +490,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C22676_C</t>
+          <t>43C18192_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C22676_C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>43C22676_C</t>
+          <t>43C18192_C</t>
         </is>
       </c>
     </row>
@@ -512,17 +507,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>08:43:28 04/07/2024</t>
+          <t>10:05:51 09/07/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:43:59 04/07/2024</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2024-07-04T08:43:28</t>
+          <t>10:06:01 09/07/2024</t>
         </is>
       </c>
     </row>
@@ -534,16 +524,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>49 Km/h</t>
+          <t>27 Km/h</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>50 Km/h</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>49</v>
+          <t>39 Km/h</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -562,11 +549,8 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>56,15 km</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>56.15</v>
+          <t>126,08 km</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -577,7 +561,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18 lần</t>
+          <t>20 lần</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
@@ -608,12 +592,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bật</t>
+          <t>Tắt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bật</t>
+          <t>Tắt</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
@@ -626,17 +610,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nguyễn Tất Thành, P. Điện Nam Bắc, TX. Điện Bàn, Quảng Nam</t>
+          <t>Ngũ Hành Sơn, P. Mỹ An, Q. Ngũ Hành Sơn, TP. Đà Nẵng</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Tất Thành, P. Điện Nam Bắc, TX. Điện Bàn, Quảng Nam</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Nguyễn Tất Thành, P. Điện Nam Bắc, TX. Điện Bàn, Quảng Nam</t>
+          <t>Ngũ Hành Sơn, P. Mỹ An, Q. Ngũ Hành Sơn, TP. Đà Nẵng</t>
         </is>
       </c>
     </row>
@@ -656,7 +635,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>260/408L</t>
+          <t>299/315L</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
@@ -694,7 +673,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01699919204</t>
+          <t>0832719109</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -707,7 +686,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>09/05/2021</t>
+          <t>26/05/2021</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -720,7 +699,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>869336030261307</t>
+          <t>869336030272783</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -772,7 +751,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>VICONSHIPCAM, KPI</t>
+          <t>VICONSHIPCAM</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
@@ -785,12 +764,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NGUYEN TRUONG AN</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>NGUYEN TRUONG AN</t>
+          <t>LE CHI VINH</t>
         </is>
       </c>
     </row>
@@ -802,12 +776,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>490100000736</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>490100000736</t>
+          <t>790161060561</t>
         </is>
       </c>
     </row>
@@ -819,7 +788,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0905074566</t>
+          <t>0905266552</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -832,11 +801,8 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>59 phút</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>59</v>
+          <t>122 phút</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -847,11 +813,8 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>127 phút</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>127</v>
+          <t>262 phút</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -865,9 +828,6 @@
           <t>0 lần</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -905,11 +865,6 @@
           <t>Vin</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>58251325</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -919,7 +874,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SCVTQC030</t>
+          <t>SCVINAQCB010</t>
         </is>
       </c>
     </row>
@@ -931,7 +886,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Viettel</t>
+          <t>Vina</t>
         </is>
       </c>
     </row>
@@ -943,7 +898,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>30720 MB</t>
+          <t>10240 MB</t>
         </is>
       </c>
     </row>
@@ -979,7 +934,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chọn nhóm</t>
+          <t>Dừng bật</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -996,7 +951,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hiển thị toàn bộ phương tiện của nhóm</t>
+          <t>Hiển thị đủ số xe 'Dừng bật"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1025,7 +980,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1037,7 +992,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoiapp.xlsx
+++ b/bangluudulieu_tamthoiapp.xlsx
@@ -490,12 +490,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C18192_C</t>
+          <t>43H06571</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C18192_C</t>
+          <t>43H06571_C</t>
         </is>
       </c>
     </row>
@@ -507,12 +507,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10:05:51 09/07/2024</t>
+          <t>10:49:03 10/07/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:06:01 09/07/2024</t>
+          <t>10:49:03 10/07/2024</t>
         </is>
       </c>
     </row>
@@ -524,12 +524,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27 Km/h</t>
+          <t>19 Km/h</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>39 Km/h</t>
+          <t>19 Km/h</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>126,08 km</t>
+          <t>20,51 km</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20 lần</t>
+          <t>8 lần</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
@@ -610,12 +610,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ngũ Hành Sơn, P. Mỹ An, Q. Ngũ Hành Sơn, TP. Đà Nẵng</t>
+          <t>Yết Kiêu, P. Thọ Quang, Q. Sơn Trà, TP. Đà Nẵng</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ngũ Hành Sơn, P. Mỹ An, Q. Ngũ Hành Sơn, TP. Đà Nẵng</t>
+          <t>Yết Kiêu, P. Thọ Quang, Q. Sơn Trà, TP. Đà Nẵng</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>299/315L</t>
+          <t>338/380L</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
@@ -673,7 +673,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0832719109</t>
+          <t>0842372313</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>26/05/2021</t>
+          <t>26/06/2024</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -699,7 +699,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>869336030272783</t>
+          <t>866540040457739</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -764,7 +764,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LE CHI VINH</t>
+          <t>NGUYEN VAN LIEM</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>790161060561</t>
+          <t>480070481684</t>
         </is>
       </c>
     </row>
@@ -786,11 +786,6 @@
           <t>điện thoại</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0905266552</t>
-        </is>
-      </c>
       <c r="D28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
@@ -801,7 +796,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>122 phút</t>
+          <t>55 phút</t>
         </is>
       </c>
     </row>
@@ -813,7 +808,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>262 phút</t>
+          <t>55 phút</t>
         </is>
       </c>
     </row>
@@ -874,7 +869,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SCVINAQCB010</t>
+          <t>SCVINACCBND</t>
         </is>
       </c>
     </row>
@@ -898,7 +893,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10240 MB</t>
+          <t>50 MB</t>
         </is>
       </c>
     </row>
@@ -934,7 +929,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dừng bật</t>
+          <t>Chọn mục yêu thích</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -951,7 +946,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hiển thị đủ số xe 'Dừng bật"</t>
+          <t>Nhỏ hơn 6 mục</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -980,7 +975,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -992,7 +987,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1,2</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoiapp.xlsx
+++ b/bangluudulieu_tamthoiapp.xlsx
@@ -929,7 +929,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chọn mục yêu thích</t>
+          <t>Đổi biển</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -942,11 +942,6 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>tính năng ảnh</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Nhỏ hơn 6 mục</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">

--- a/bangluudulieu_tamthoiapp.xlsx
+++ b/bangluudulieu_tamthoiapp.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -427,8 +427,8 @@
   </sheetPr>
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -490,12 +490,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43H06571</t>
+          <t>43C11028_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43H06571_C</t>
+          <t>43C11028_C</t>
         </is>
       </c>
     </row>
@@ -507,12 +507,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10:49:03 10/07/2024</t>
+          <t>18:13:42 22/07/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:49:03 10/07/2024</t>
+          <t>18:13:42 22/07/2024</t>
         </is>
       </c>
     </row>
@@ -524,12 +524,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>19 Km/h</t>
+          <t>39 Km/h</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19 Km/h</t>
+          <t>39 Km/h</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20,51 km</t>
+          <t>214,3 km</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8 lần</t>
+          <t>27 lần</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>338/380L</t>
+          <t>371/395L</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
@@ -673,7 +673,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0842372313</t>
+          <t>0827328182</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>26/06/2024</t>
+          <t>10/05/2021</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -699,7 +699,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>866540040457739</t>
+          <t>868133049063639</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -764,7 +764,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NGUYEN VAN LIEM</t>
+          <t>NGUYEN NGOC SON</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>480070481684</t>
+          <t>480127485898</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>55 phút</t>
+          <t>72 phút</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>55 phút</t>
+          <t>385 phút</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SCVINACCBND</t>
+          <t>SCVINAQCB010</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>50 MB</t>
+          <t>10240 MB</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Đổi biển</t>
+          <t>Click vào video</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">

--- a/bangluudulieu_tamthoiapp.xlsx
+++ b/bangluudulieu_tamthoiapp.xlsx
@@ -34,7 +34,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -44,6 +44,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -75,13 +81,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +432,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -488,31 +495,21 @@
           <t>Biển số</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>43C11028_C</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C11028_C</t>
+          <t>43C01339_C</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Giờ cập nhật</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>18:13:42 22/07/2024</t>
+          <t>Thời gian</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:13:42 22/07/2024</t>
+          <t>19:36:49 01/08/2024</t>
         </is>
       </c>
     </row>
@@ -522,14 +519,9 @@
           <t>vận tốc gps</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>39 Km/h</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>39 Km/h</t>
+          <t>0 Km/h</t>
         </is>
       </c>
     </row>
@@ -539,7 +531,7 @@
           <t>Vận tốc cơ</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -549,7 +541,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>214,3 km</t>
+          <t>5,43 Km</t>
         </is>
       </c>
     </row>
@@ -561,10 +553,9 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>27 lần</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr"/>
+          <t>6 lần</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -572,17 +563,11 @@
           <t>Động cơ</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Bật</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bật</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -590,17 +575,6 @@
           <t>điều hòa</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Tắt</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Tắt</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -608,14 +582,9 @@
           <t>địa chỉ</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Yết Kiêu, P. Thọ Quang, Q. Sơn Trà, TP. Đà Nẵng</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yết Kiêu, P. Thọ Quang, Q. Sơn Trà, TP. Đà Nẵng</t>
+          <t>Nguyễn Hữu Thọ, P. Khuê Trung, Q. Cẩm Lệ, TP. Đà Nẵng</t>
         </is>
       </c>
     </row>
@@ -625,7 +594,7 @@
           <t>Thời gian dừng đỗ</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
+      <c r="C15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -633,12 +602,6 @@
           <t>nhiên liệu</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>371/395L</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -651,7 +614,6 @@
           <t>Mất kết nối cảm biến</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -659,11 +621,7 @@
           <t>Cửa xe</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Đóng cửa</t>
-        </is>
-      </c>
+      <c r="C18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -671,12 +629,6 @@
           <t>Số sim</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0827328182</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -684,12 +636,6 @@
           <t>Ngày đăng ký</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10/05/2021</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -697,12 +643,7 @@
           <t>Imei</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>868133049063639</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -710,12 +651,6 @@
           <t>Km tích lũy</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0 km</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -723,12 +658,7 @@
           <t>Số lần mở cửa</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr"/>
+      <c r="C23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -736,12 +666,6 @@
           <t>Thẻ nhớ</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Bình thường</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -749,12 +673,6 @@
           <t>Nhóm đội</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>VICONSHIPCAM</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -762,11 +680,6 @@
           <t>lái xe</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>NGUYEN NGOC SON</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -774,11 +687,6 @@
           <t>bằng lái</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>480127485898</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -786,7 +694,6 @@
           <t>điện thoại</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -794,11 +701,6 @@
           <t>thời gian lái xe liên tục</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>72 phút</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -806,11 +708,6 @@
           <t>thời gian lái xe trong ngày</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>385 phút</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -818,11 +715,6 @@
           <t>số lần quá tốc độ</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0 lần</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -830,7 +722,6 @@
           <t>sở quản lý</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -838,7 +729,7 @@
           <t>Thông tin thẻ nhớ</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
+      <c r="C33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -846,6 +737,7 @@
           <t>loại hình vận tải</t>
         </is>
       </c>
+      <c r="C34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -853,6 +745,7 @@
           <t>thời hạn đóng phí</t>
         </is>
       </c>
+      <c r="C35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -862,14 +755,9 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>tên gói cước</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>SCVINAQCB010</t>
         </is>
       </c>
     </row>
@@ -879,11 +767,6 @@
           <t>nhà mạng</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Vina</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -891,11 +774,6 @@
           <t>dung lượng gói cước</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>10240 MB</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -903,11 +781,6 @@
           <t>Số ngày lưu trữ</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0 ngày</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -915,11 +788,6 @@
           <t>Số kênh lưu trữ</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -929,12 +797,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Click vào video</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Có</t>
+          <t>Đặt lại</t>
         </is>
       </c>
     </row>
@@ -944,9 +807,9 @@
           <t>tính năng ảnh</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Có</t>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Xóa các kênh camera đã chọn trước đó</t>
         </is>
       </c>
     </row>
@@ -956,11 +819,6 @@
           <t>tính năng video</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -968,11 +826,6 @@
           <t>Kênh lắp camera</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -980,11 +833,6 @@
           <t>Kênh hoạt động</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1060,6 +908,97 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>tên tài khoản ngẫu nhiên</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Đang đỗ</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Dừng đỗ nổ máy</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hoạt động lần đầu</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Bản tin gần nhất</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>trạng thái GPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Số sim(thiết bị)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Loại thuê bao</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Mức ác quy</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>trạng thái nguồn</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Mạng kết nối</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Số tiền còn lại</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Trạng thái sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Cập nhật lúc</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoiapp.xlsx
+++ b/bangluudulieu_tamthoiapp.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C01339_C</t>
+          <t>43C01338_C</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:36:49 01/08/2024</t>
+          <t>16:45:40 05/08/2024</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0 Km/h</t>
+          <t>57 Km/h</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5,43 Km</t>
+          <t>89,93 Km</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6 lần</t>
+          <t>30 lần</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Thọ, P. Khuê Trung, Q. Cẩm Lệ, TP. Đà Nẵng</t>
+          <t>Quốc Lộ 1A, X. Bình An, H. Thăng Bình, Quảng Nam</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Đặt lại</t>
+          <t>Tìm kiếm</t>
         </is>
       </c>
     </row>
@@ -805,11 +805,6 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>tính năng ảnh</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Xóa các kênh camera đã chọn trước đó</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoiapp.xlsx
+++ b/bangluudulieu_tamthoiapp.xlsx
@@ -434,8 +434,8 @@
   </sheetPr>
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -509,7 +509,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:40 05/08/2024</t>
+          <t>10:10:23 13/08/2024</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>57 Km/h</t>
+          <t>16 Km/h</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>89,93 Km</t>
+          <t>120,88 Km</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30 lần</t>
+          <t>19 lần</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 1A, X. Bình An, H. Thăng Bình, Quảng Nam</t>
+          <t>Ngô Quyền, P. An Hải Tây, Q. Sơn Trà, TP. Đà Nẵng</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tìm kiếm</t>
+          <t>Bỏ ẩn phương tiện</t>
         </is>
       </c>
     </row>
@@ -807,6 +807,11 @@
           <t>tính năng ảnh</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hiện message "Bỏ ẩn phương tiện thành công"</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -896,6 +901,18 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>Thời gian bắt đầu chạy tool</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Thời gian hiện tại</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>13:17:08</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoiapp.xlsx
+++ b/bangluudulieu_tamthoiapp.xlsx
@@ -434,8 +434,8 @@
   </sheetPr>
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -509,7 +509,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:10:23 13/08/2024</t>
+          <t>07:51:28 16/08/2024</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16 Km/h</t>
+          <t>0 Km/h</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>120,88 Km</t>
+          <t>94,59 Km</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19 lần</t>
+          <t>6 lần</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ngô Quyền, P. An Hải Tây, Q. Sơn Trà, TP. Đà Nẵng</t>
+          <t>Quốc Lộ 1A, P. Phú Bài, TX. Hương Thủy, Thừa Thiên Huế</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bỏ ẩn phương tiện</t>
+          <t>Chuyển cảnh báo thành đã đọc</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hiện message "Bỏ ẩn phương tiện thành công"</t>
+          <t>Đã đọc tất cả cảnh báo thành công</t>
         </is>
       </c>
     </row>
@@ -903,16 +903,16 @@
           <t>Thời gian bắt đầu chạy tool</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
           <t>Thời gian hiện tại</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>13:17:08</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoiapp.xlsx
+++ b/bangluudulieu_tamthoiapp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -34,7 +34,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -50,6 +50,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -81,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -89,6 +95,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +440,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -495,9 +503,14 @@
           <t>Biển số</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>43H12074</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C01338_C</t>
+          <t>43H12074_C</t>
         </is>
       </c>
     </row>
@@ -507,9 +520,14 @@
           <t>Thời gian</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>16:03:21 03/12/2025</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:51:28 16/08/2024</t>
+          <t>16:03:21 03/12/2025</t>
         </is>
       </c>
     </row>
@@ -519,6 +537,11 @@
           <t>vận tốc gps</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0 Km/h</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>0 Km/h</t>
@@ -531,7 +554,7 @@
           <t>Vận tốc cơ</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -541,7 +564,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>94,59 Km</t>
+          <t>178,84 Km</t>
         </is>
       </c>
     </row>
@@ -553,7 +576,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6 lần</t>
+          <t>12 lần</t>
         </is>
       </c>
     </row>
@@ -563,9 +586,14 @@
           <t>Động cơ</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tắt máy</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bật</t>
+          <t>Tắt máy</t>
         </is>
       </c>
     </row>
@@ -575,6 +603,16 @@
           <t>điều hòa</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tắt máy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Tắt máy</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -582,9 +620,14 @@
           <t>địa chỉ</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Võ Chí Công, X. Thăng Trường, TP. Đà Nẵng</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 1A, P. Phú Bài, TX. Hương Thủy, Thừa Thiên Huế</t>
+          <t>Võ Chí Công, X. Thăng Trường, TP. Đà Nẵng</t>
         </is>
       </c>
     </row>
@@ -594,12 +637,17 @@
           <t>Thời gian dừng đỗ</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr"/>
+      <c r="C15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>nhiên liệu</t>
+          <t>Bình 1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>177/456L</t>
         </is>
       </c>
     </row>
@@ -609,11 +657,6 @@
           <t>nhiệt độ</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mất kết nối cảm biến</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -621,7 +664,12 @@
           <t>Cửa xe</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Đóng cửa</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -636,6 +684,11 @@
           <t>Ngày đăng ký</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -643,7 +696,7 @@
           <t>Imei</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -658,7 +711,7 @@
           <t>Số lần mở cửa</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr"/>
+      <c r="C23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -666,6 +719,11 @@
           <t>Thẻ nhớ</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Bình thường</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -673,6 +731,11 @@
           <t>Nhóm đội</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>VICONSHIPCAM</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -680,6 +743,11 @@
           <t>lái xe</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NGUYEN TAN THUAN</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -687,6 +755,11 @@
           <t>bằng lái</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>480113480764</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -701,6 +774,11 @@
           <t>thời gian lái xe liên tục</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0 phút</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -708,6 +786,11 @@
           <t>thời gian lái xe trong ngày</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4 giờ 1 phút</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -715,6 +798,11 @@
           <t>số lần quá tốc độ</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0 lần</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -729,7 +817,7 @@
           <t>Thông tin thẻ nhớ</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr"/>
+      <c r="C33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -737,7 +825,7 @@
           <t>loại hình vận tải</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr"/>
+      <c r="C34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -745,7 +833,7 @@
           <t>thời hạn đóng phí</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr"/>
+      <c r="C35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -760,6 +848,11 @@
           <t>tên gói cước</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SCVTQC030</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -767,6 +860,11 @@
           <t>nhà mạng</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Viettel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -774,6 +872,11 @@
           <t>dung lượng gói cước</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>30720 MB</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -781,6 +884,11 @@
           <t>Số ngày lưu trữ</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0 ngày</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -788,6 +896,11 @@
           <t>Số kênh lưu trữ</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -797,7 +910,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chuyển cảnh báo thành đã đọc</t>
+          <t>Chọn chức năng "Chấm công"</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Có</t>
         </is>
       </c>
     </row>
@@ -809,7 +927,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Đã đọc tất cả cảnh báo thành công</t>
+          <t>Chuyển tới trang "CHẤM CÔNG"</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Có</t>
         </is>
       </c>
     </row>
@@ -819,6 +942,11 @@
           <t>tính năng video</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -903,11 +1031,6 @@
           <t>Thời gian bắt đầu chạy tool</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>15:40</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -929,6 +1052,11 @@
           <t>Đang đỗ</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4 giờ 3 phút</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -943,6 +1071,11 @@
           <t>Hoạt động lần đầu</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>16:30 10/03/2025</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -950,6 +1083,11 @@
           <t>Bản tin gần nhất</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>12:01 03/12/2025</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -971,6 +1109,11 @@
           <t>Loại thuê bao</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Trả trước</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -978,6 +1121,11 @@
           <t>Mức ác quy</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>12,55 V</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -985,6 +1133,11 @@
           <t>trạng thái nguồn</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Bình thường</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -999,6 +1152,11 @@
           <t>Số tiền còn lại</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0 VNĐ</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1011,6 +1169,678 @@
       <c r="A71" t="inlineStr">
         <is>
           <t>Cập nhật lúc</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Truyền dữ liệu bca_doanh nghiệp</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Truyền dữ liệu bca_lái xe</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Thời gian lái xe trong tuần</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>15 giờ 3 phút</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nhập nhiệt độ(phương tiện)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>29C56788</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Mất kết nối cảm biến</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>count phạt nguội</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Tổng case mức 0</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Tổng case mức 1</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Tổng case mức 2</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Tổng case mức 3</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Tổng case mức 4</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tổng case mức nghiêm trọng</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Tổng các case trống</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Nợ phí</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Số lượng</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Di chuyển</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Số lượng</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dừng - Tắt</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Số lượng</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dừng - Bật</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Số lượng</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bật máy</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Số lượng</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tắt máy</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Số lượng</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Quá tốc độ</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Số lượng</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mất GPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Số lượng</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mất GSM</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Số lượng</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Tất cả</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Số lượng</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Trajgn thái chung</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Di chuyển</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Số lượng chung</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>name lộ trình</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>detail lộ trình</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>chấm công</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>29A12345_C</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>phiên bản</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5" t="n"/>
+      <c r="B120" s="6" t="n"/>
+      <c r="C120" s="6" t="n"/>
+      <c r="D120" s="6" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="n"/>
+      <c r="B121" s="6" t="n"/>
+      <c r="C121" s="6" t="n"/>
+      <c r="D121" s="6" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="5" t="n"/>
+      <c r="B122" s="6" t="n"/>
+      <c r="C122" s="6" t="n"/>
+      <c r="D122" s="6" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="n"/>
+      <c r="B123" s="6" t="n"/>
+      <c r="C123" s="6" t="n"/>
+      <c r="D123" s="6" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="5" t="n"/>
+      <c r="B124" s="6" t="n"/>
+      <c r="C124" s="6" t="n"/>
+      <c r="D124" s="6" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="n"/>
+      <c r="B125" s="6" t="n"/>
+      <c r="C125" s="6" t="n"/>
+      <c r="D125" s="6" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="5" t="n"/>
+      <c r="B126" s="6" t="n"/>
+      <c r="C126" s="6" t="n"/>
+      <c r="D126" s="6" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="n"/>
+      <c r="B127" s="6" t="n"/>
+      <c r="C127" s="6" t="n"/>
+      <c r="D127" s="6" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="5" t="n"/>
+      <c r="B128" s="6" t="n"/>
+      <c r="C128" s="6" t="n"/>
+      <c r="D128" s="6" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="n"/>
+      <c r="B129" s="6" t="n"/>
+      <c r="C129" s="6" t="n"/>
+      <c r="D129" s="6" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="5" t="n"/>
+      <c r="B130" s="6" t="n"/>
+      <c r="C130" s="6" t="n"/>
+      <c r="D130" s="6" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="5" t="n"/>
+      <c r="B131" s="6" t="n"/>
+      <c r="C131" s="6" t="n"/>
+      <c r="D131" s="6" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="5" t="n"/>
+      <c r="B132" s="6" t="n"/>
+      <c r="C132" s="6" t="n"/>
+      <c r="D132" s="6" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="n"/>
+      <c r="B133" s="6" t="n"/>
+      <c r="C133" s="6" t="n"/>
+      <c r="D133" s="6" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="5" t="n"/>
+      <c r="B134" s="6" t="n"/>
+      <c r="C134" s="6" t="n"/>
+      <c r="D134" s="6" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="5" t="n"/>
+      <c r="B135" s="6" t="n"/>
+      <c r="C135" s="6" t="n"/>
+      <c r="D135" s="6" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="5" t="n"/>
+      <c r="B136" s="6" t="n"/>
+      <c r="C136" s="6" t="n"/>
+      <c r="D136" s="6" t="n"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="5" t="n"/>
+      <c r="B137" s="6" t="n"/>
+      <c r="C137" s="6" t="n"/>
+      <c r="D137" s="6" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="5" t="n"/>
+      <c r="B138" s="6" t="n"/>
+      <c r="C138" s="6" t="n"/>
+      <c r="D138" s="6" t="n"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="5" t="n"/>
+      <c r="B139" s="6" t="n"/>
+      <c r="C139" s="6" t="n"/>
+      <c r="D139" s="6" t="n"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="5" t="n"/>
+      <c r="B140" s="6" t="n"/>
+      <c r="C140" s="6" t="n"/>
+      <c r="D140" s="6" t="n"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="5" t="n"/>
+      <c r="B141" s="6" t="n"/>
+      <c r="C141" s="6" t="n"/>
+      <c r="D141" s="6" t="n"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="5" t="n"/>
+      <c r="B142" s="6" t="n"/>
+      <c r="C142" s="6" t="n"/>
+      <c r="D142" s="6" t="n"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="5" t="n"/>
+      <c r="B143" s="6" t="n"/>
+      <c r="C143" s="6" t="n"/>
+      <c r="D143" s="6" t="n"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="5" t="n"/>
+      <c r="B144" s="6" t="n"/>
+      <c r="C144" s="6" t="n"/>
+      <c r="D144" s="6" t="n"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="5" t="n"/>
+      <c r="B145" s="6" t="n"/>
+      <c r="C145" s="6" t="n"/>
+      <c r="D145" s="6" t="n"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="5" t="n"/>
+      <c r="B146" s="6" t="n"/>
+      <c r="C146" s="6" t="n"/>
+      <c r="D146" s="6" t="n"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="5" t="n"/>
+      <c r="B147" s="6" t="n"/>
+      <c r="C147" s="6" t="n"/>
+      <c r="D147" s="6" t="n"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="5" t="n"/>
+      <c r="B148" s="6" t="n"/>
+      <c r="C148" s="6" t="n"/>
+      <c r="D148" s="6" t="n"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="5" t="n"/>
+      <c r="B149" s="6" t="n"/>
+      <c r="C149" s="6" t="n"/>
+      <c r="D149" s="6" t="n"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="5" t="n"/>
+      <c r="B150" s="6" t="n"/>
+      <c r="C150" s="6" t="n"/>
+      <c r="D150" s="6" t="n"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Tổng case fail mức 0</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Tổng case fail mức 1</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Tổng case fail mức 2</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Tổng case fail mức 3</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Tổng case fail mức 4</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Tổng case fail mức nghiêm trọng</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Tổng các case fail</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Tổng case fail chung</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Tổng case pass mức 0</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Tổng case pass mức 1</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Tổng case pass mức 2</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Tổng case pass mức 3</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Tổng case pass mức 4</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Tổng các case pass</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Tổng case pass chung</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>855</t>
         </is>
       </c>
     </row>
@@ -1026,10 +1856,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1055,143 +1885,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>phương tiện</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>thời gian</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>vận tốc gps</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>km trong ngày</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>nhiên liệu</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>nhiêệt độ</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>lái xe</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>giấy phép lái xe</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>thời gian lái xe liên tục</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>thời gian lái xe trong ngày</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>số lần quá tốc độ</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>sở quản lý</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>loại hình vận tải</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>thời hạn đóng phí</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>tên gói cước</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>nhà mạng</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>dung lượng gói cước</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>tính năng định vị</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>tính năng định ảnh</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>tính năng định video</t>
+          <t>Thời gian bắt đầu chạy tool</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20:51:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Check logout minitor</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
